--- a/Bit Geeks - Project/Gone Sin Mal- (Project TimeLine & WorkFlow)/Gone_sin_Mal-normalized.xlsx
+++ b/Bit Geeks - Project/Gone Sin Mal- (Project TimeLine & WorkFlow)/Gone_sin_Mal-normalized.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="133">
   <si>
     <t>Rest_Coin</t>
   </si>
@@ -283,41 +283,155 @@
     <t>Record_id (PK)</t>
   </si>
   <si>
-    <t>composive primary key (User_id + Rest_id)</t>
-  </si>
-  <si>
     <t>user_1</t>
   </si>
   <si>
-    <t>composive primary key (Rest_id + User_id)</t>
-  </si>
-  <si>
     <t>Noti_type</t>
   </si>
   <si>
     <t>Notification</t>
   </si>
   <si>
-    <t>Noti_status</t>
-  </si>
-  <si>
     <t>User Table</t>
   </si>
   <si>
+    <t>User_noti_token</t>
+  </si>
+  <si>
+    <t>expotoken here</t>
+  </si>
+  <si>
+    <t>User_state</t>
+  </si>
+  <si>
+    <t>User_id</t>
+  </si>
+  <si>
+    <t>Rest_name</t>
+  </si>
+  <si>
     <t>Rest_profile_picture</t>
   </si>
   <si>
-    <t>Noti_id</t>
-  </si>
-  <si>
-    <t>img(blob)</t>
+    <t>Rest_category</t>
+  </si>
+  <si>
+    <t>fast food</t>
+  </si>
+  <si>
+    <t>Rest_created_date</t>
+  </si>
+  <si>
+    <t>Rest_coin_purchased</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Visited Restaurants Table</t>
+  </si>
+  <si>
+    <t>ID(PK)</t>
+  </si>
+  <si>
+    <t>Rest_id(FK)</t>
+  </si>
+  <si>
+    <t>Fav_id(PK)</t>
+  </si>
+  <si>
+    <t>Coin_img</t>
+  </si>
+  <si>
+    <t>blob(img)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpireIn </t>
+  </si>
+  <si>
+    <t>23/5/18</t>
+  </si>
+  <si>
+    <t>ID (PK)</t>
+  </si>
+  <si>
+    <t>Transaction Table</t>
+  </si>
+  <si>
+    <t>Tran_id</t>
+  </si>
+  <si>
+    <t>Tran_Type</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>Tran_Date</t>
+  </si>
+  <si>
+    <t>Package_id (FK)</t>
+  </si>
+  <si>
+    <t>Used Transaction ID Table</t>
+  </si>
+  <si>
+    <t>Noti_text</t>
+  </si>
+  <si>
+    <t>comfirmation complete</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>user_noti_token</t>
+  </si>
+  <si>
+    <t>expo token</t>
+  </si>
+  <si>
+    <t>rest_profile_picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest_coin_purchased </t>
+  </si>
+  <si>
+    <t>coin img</t>
+  </si>
+  <si>
+    <t>coin_img</t>
+  </si>
+  <si>
+    <t>Tran_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending </t>
+  </si>
+  <si>
+    <t>Tran_date</t>
+  </si>
+  <si>
+    <t>Rest_created_date date</t>
+  </si>
+  <si>
+    <t>Tran_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">traditional </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +473,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,6 +669,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -824,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AQ6"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3:AK5"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ4" sqref="AQ4:AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,11 +997,9 @@
     <col min="35" max="35" width="28.140625" customWidth="1"/>
     <col min="36" max="36" width="26" customWidth="1"/>
     <col min="37" max="37" width="16.85546875" customWidth="1"/>
-    <col min="38" max="38" width="17.5703125" customWidth="1"/>
+    <col min="38" max="38" width="19.42578125" customWidth="1"/>
     <col min="39" max="39" width="17" customWidth="1"/>
-    <col min="40" max="40" width="19.42578125" customWidth="1"/>
-    <col min="41" max="41" width="17.7109375" customWidth="1"/>
-    <col min="42" max="42" width="26.140625" customWidth="1"/>
+    <col min="40" max="42" width="12.42578125" customWidth="1"/>
     <col min="43" max="43" width="19.85546875" customWidth="1"/>
     <col min="44" max="44" width="27.7109375" customWidth="1"/>
     <col min="45" max="45" width="30.42578125" customWidth="1"/>
@@ -884,7 +1016,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>66</v>
@@ -935,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>4</v>
@@ -971,26 +1103,38 @@
         <v>10</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1053,11 +1197,11 @@
       <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" t="s">
-        <v>25</v>
+      <c r="U4" s="3">
+        <v>43436</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
       </c>
       <c r="W4" t="s">
         <v>74</v>
@@ -1102,7 +1246,25 @@
         <v>78</v>
       </c>
       <c r="AK4" t="s">
-        <v>94</v>
+        <v>121</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>43436</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -1166,11 +1328,11 @@
       <c r="T5" t="s">
         <v>35</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" t="s">
-        <v>25</v>
+      <c r="U5" s="3">
+        <v>43436</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
       </c>
       <c r="W5" t="s">
         <v>74</v>
@@ -1215,7 +1377,25 @@
         <v>79</v>
       </c>
       <c r="AK5" t="s">
-        <v>94</v>
+        <v>121</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>43436</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -1236,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB4"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1431,7 @@
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" customWidth="1"/>
@@ -1264,7 +1444,7 @@
     <col min="25" max="25" width="19.140625" customWidth="1"/>
     <col min="26" max="26" width="19.5703125" customWidth="1"/>
     <col min="27" max="27" width="23.42578125" customWidth="1"/>
-    <col min="28" max="28" width="18.85546875" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" customWidth="1"/>
     <col min="29" max="29" width="21.5703125" customWidth="1"/>
     <col min="30" max="30" width="24" customWidth="1"/>
     <col min="31" max="31" width="27.140625" customWidth="1"/>
@@ -1272,7 +1452,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L1" s="3"/>
       <c r="Y1" s="4"/>
@@ -1360,7 +1540,22 @@
         <v>10</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -1445,8 +1640,20 @@
       <c r="AA3">
         <v>2000</v>
       </c>
-      <c r="AB3" t="s">
-        <v>94</v>
+      <c r="AC3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>43436</v>
+      </c>
+      <c r="AE3">
+        <v>200</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3">
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1531,14 +1738,21 @@
       <c r="AA4">
         <v>2000</v>
       </c>
-      <c r="AB4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="AC4" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>43436</v>
+      </c>
+      <c r="AE4" s="37">
+        <v>500</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4">
+        <v>2345</v>
+      </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -1613,7 +1827,13 @@
         <v>62</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>76</v>
+        <v>128</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -1647,8 +1867,14 @@
       <c r="J11" t="s">
         <v>28</v>
       </c>
-      <c r="K11" t="s">
-        <v>78</v>
+      <c r="K11" s="3">
+        <v>43436</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -1682,8 +1908,14 @@
       <c r="J12" t="s">
         <v>29</v>
       </c>
-      <c r="K12" t="s">
-        <v>79</v>
+      <c r="K12" s="3">
+        <v>43436</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,15 +1931,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,23 +1956,26 @@
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -1749,18 +1985,21 @@
         <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="F3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>69</v>
       </c>
       <c r="Z3" s="4"/>
@@ -1768,47 +2007,53 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <v>1000</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4" s="12">
         <v>4</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="13">
         <v>43436</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <v>1000</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="15">
         <v>4</v>
       </c>
-      <c r="H5" s="16">
+      <c r="I5" s="16">
         <v>43436</v>
       </c>
     </row>
@@ -1819,8 +2064,8 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -1832,58 +2077,66 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="K9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="P9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="T9" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1892,51 +2145,57 @@
         <v>19</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="12">
+      <c r="K10" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="12">
         <v>6000</v>
       </c>
-      <c r="J10" s="12">
+      <c r="M10" s="12">
         <v>1500</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>45</v>
+      </c>
+      <c r="R10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="S10" s="12">
         <v>1212324.355</v>
       </c>
-      <c r="R10" s="23">
+      <c r="T10" s="23">
         <v>34534.345345000002</v>
       </c>
     </row>
@@ -1945,51 +2204,57 @@
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="15">
+      <c r="K11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="15">
         <v>6000</v>
       </c>
-      <c r="J11" s="15">
+      <c r="M11" s="15">
         <v>1500</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="P11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>45</v>
+      </c>
+      <c r="R11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="S11" s="15">
         <v>324232.23423399997</v>
       </c>
-      <c r="R11" s="24">
+      <c r="T11" s="24">
         <v>345.34534500000001</v>
       </c>
     </row>
@@ -2038,57 +2303,56 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="15">
-        <v>200</v>
-      </c>
-      <c r="E18" s="15">
-        <v>5000</v>
-      </c>
-      <c r="F18" s="24">
-        <v>2000</v>
-      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>49</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>19</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2098,7 +2362,8 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
@@ -2110,7 +2375,10 @@
       <c r="D29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2124,7 +2392,10 @@
       <c r="D30" s="12">
         <v>100</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2138,63 +2409,86 @@
       <c r="D31" s="15">
         <v>300</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="Z34" s="4"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C34" s="33"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="AA34" s="4"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="28"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="D36" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="23">
+      <c r="D37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="24">
+      <c r="D38" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="24">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="20" t="s">
         <v>51</v>
@@ -2202,9 +2496,10 @@
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
         <v>52</v>
@@ -2212,52 +2507,224 @@
       <c r="C42" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>88</v>
+      <c r="D42" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="F43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="F44" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>79</v>
+      <c r="G44" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="22"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="12">
+        <v>2</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="12">
+        <v>1</v>
+      </c>
+      <c r="H57" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="15">
+        <v>3</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="15">
+        <v>2</v>
+      </c>
+      <c r="H58" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="19"/>
+    </row>
+    <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="28"/>
+      <c r="C63" s="30"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>